--- a/dataset/Dataset.xlsx
+++ b/dataset/Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22ccf9f92389cf91/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varun\OneDrive\Desktop\thesis_remote\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="966" documentId="11_D40BBB471A9968FE51D82343F0831DECC9A2212A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1220451D-743A-4CB3-959C-A9EA56C73802}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C95BC-C93A-4399-9F05-F1998DD0EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="768">
   <si>
     <t>Name</t>
   </si>
@@ -1903,6 +1903,432 @@
   </si>
   <si>
     <t>140723_68_5</t>
+  </si>
+  <si>
+    <t>310723_101_1</t>
+  </si>
+  <si>
+    <t>310723_101_2</t>
+  </si>
+  <si>
+    <t>310723_101_3</t>
+  </si>
+  <si>
+    <t>310723_101_4</t>
+  </si>
+  <si>
+    <t>310723_101_5</t>
+  </si>
+  <si>
+    <t>310723_102_1</t>
+  </si>
+  <si>
+    <t>310723_102_2</t>
+  </si>
+  <si>
+    <t>310723_102_3</t>
+  </si>
+  <si>
+    <t>310723_102_4</t>
+  </si>
+  <si>
+    <t>310723_102_5</t>
+  </si>
+  <si>
+    <t>310723_99_1</t>
+  </si>
+  <si>
+    <t>310723_99_2</t>
+  </si>
+  <si>
+    <t>310723_99_3</t>
+  </si>
+  <si>
+    <t>310723_99_4</t>
+  </si>
+  <si>
+    <t>310723_99_5</t>
+  </si>
+  <si>
+    <t>310723_100_1</t>
+  </si>
+  <si>
+    <t>310723_100_2</t>
+  </si>
+  <si>
+    <t>310723_100_3</t>
+  </si>
+  <si>
+    <t>310723_100_4</t>
+  </si>
+  <si>
+    <t>310723_100_5</t>
+  </si>
+  <si>
+    <t>310723_97_1</t>
+  </si>
+  <si>
+    <t>310723_97_2</t>
+  </si>
+  <si>
+    <t>310723_97_3</t>
+  </si>
+  <si>
+    <t>310723_97_4</t>
+  </si>
+  <si>
+    <t>310723_97_5</t>
+  </si>
+  <si>
+    <t>310723_98_1</t>
+  </si>
+  <si>
+    <t>310723_98_2</t>
+  </si>
+  <si>
+    <t>310723_98_3</t>
+  </si>
+  <si>
+    <t>310723_98_4</t>
+  </si>
+  <si>
+    <t>310723_98_5</t>
+  </si>
+  <si>
+    <t>310723_107_1</t>
+  </si>
+  <si>
+    <t>310723_107_2</t>
+  </si>
+  <si>
+    <t>310723_107_3</t>
+  </si>
+  <si>
+    <t>310723_107_4</t>
+  </si>
+  <si>
+    <t>310723_107_5</t>
+  </si>
+  <si>
+    <t>310723_109_1</t>
+  </si>
+  <si>
+    <t>310723_109_2</t>
+  </si>
+  <si>
+    <t>310723_109_3</t>
+  </si>
+  <si>
+    <t>310723_109_4</t>
+  </si>
+  <si>
+    <t>310723_109_5</t>
+  </si>
+  <si>
+    <t>310723_124_1</t>
+  </si>
+  <si>
+    <t>310723_124_2</t>
+  </si>
+  <si>
+    <t>310723_124_3</t>
+  </si>
+  <si>
+    <t>310723_124_4</t>
+  </si>
+  <si>
+    <t>310723_124_5</t>
+  </si>
+  <si>
+    <t>310723_104_1</t>
+  </si>
+  <si>
+    <t>310723_104_2</t>
+  </si>
+  <si>
+    <t>310723_104_3</t>
+  </si>
+  <si>
+    <t>310723_104_4</t>
+  </si>
+  <si>
+    <t>310723_104_5</t>
+  </si>
+  <si>
+    <t>310723_103_1</t>
+  </si>
+  <si>
+    <t>310723_103_2</t>
+  </si>
+  <si>
+    <t>310723_103_3</t>
+  </si>
+  <si>
+    <t>310723_103_4</t>
+  </si>
+  <si>
+    <t>310723_103_5</t>
+  </si>
+  <si>
+    <t>310723_94_1</t>
+  </si>
+  <si>
+    <t>310723_94_2</t>
+  </si>
+  <si>
+    <t>310723_94_3</t>
+  </si>
+  <si>
+    <t>310723_94_4</t>
+  </si>
+  <si>
+    <t>310723_94_5</t>
+  </si>
+  <si>
+    <t>310723_92_1</t>
+  </si>
+  <si>
+    <t>310723_92_2</t>
+  </si>
+  <si>
+    <t>310723_92_3</t>
+  </si>
+  <si>
+    <t>310723_92_4</t>
+  </si>
+  <si>
+    <t>310723_92_5</t>
+  </si>
+  <si>
+    <t>310723_93_1</t>
+  </si>
+  <si>
+    <t>310723_93_2</t>
+  </si>
+  <si>
+    <t>310723_93_3</t>
+  </si>
+  <si>
+    <t>310723_93_4</t>
+  </si>
+  <si>
+    <t>310723_93_5</t>
+  </si>
+  <si>
+    <t>310723_90_1</t>
+  </si>
+  <si>
+    <t>310723_90_2</t>
+  </si>
+  <si>
+    <t>310723_90_3</t>
+  </si>
+  <si>
+    <t>310723_90_4</t>
+  </si>
+  <si>
+    <t>310723_90_5</t>
+  </si>
+  <si>
+    <t>310723_89_1</t>
+  </si>
+  <si>
+    <t>310723_89_2</t>
+  </si>
+  <si>
+    <t>310723_89_3</t>
+  </si>
+  <si>
+    <t>310723_89_4</t>
+  </si>
+  <si>
+    <t>310723_89_5</t>
+  </si>
+  <si>
+    <t>310723_85_1</t>
+  </si>
+  <si>
+    <t>310723_85_2</t>
+  </si>
+  <si>
+    <t>310723_85_3</t>
+  </si>
+  <si>
+    <t>310723_85_4</t>
+  </si>
+  <si>
+    <t>310723_85_5</t>
+  </si>
+  <si>
+    <t>310723_86_1</t>
+  </si>
+  <si>
+    <t>310723_86_2</t>
+  </si>
+  <si>
+    <t>310723_86_3</t>
+  </si>
+  <si>
+    <t>310723_86_4</t>
+  </si>
+  <si>
+    <t>310723_86_5</t>
+  </si>
+  <si>
+    <t>310723_87_1</t>
+  </si>
+  <si>
+    <t>310723_87_2</t>
+  </si>
+  <si>
+    <t>310723_87_3</t>
+  </si>
+  <si>
+    <t>310723_87_4</t>
+  </si>
+  <si>
+    <t>310723_87_5</t>
+  </si>
+  <si>
+    <t>310723_88_1</t>
+  </si>
+  <si>
+    <t>310723_88_2</t>
+  </si>
+  <si>
+    <t>310723_88_3</t>
+  </si>
+  <si>
+    <t>310723_88_4</t>
+  </si>
+  <si>
+    <t>310723_88_5</t>
+  </si>
+  <si>
+    <t>1*.7</t>
+  </si>
+  <si>
+    <t>1*.4</t>
+  </si>
+  <si>
+    <t>1.2*.6</t>
+  </si>
+  <si>
+    <t>1*.6</t>
+  </si>
+  <si>
+    <t>1.1*.5</t>
+  </si>
+  <si>
+    <t>.7*.4</t>
+  </si>
+  <si>
+    <t>1.4*.6</t>
+  </si>
+  <si>
+    <t>310723_12_1</t>
+  </si>
+  <si>
+    <t>310723_12_2</t>
+  </si>
+  <si>
+    <t>310723_12_3</t>
+  </si>
+  <si>
+    <t>310723_12_4</t>
+  </si>
+  <si>
+    <t>310723_12_5</t>
+  </si>
+  <si>
+    <t>310723_05_1</t>
+  </si>
+  <si>
+    <t>310723_05_2</t>
+  </si>
+  <si>
+    <t>310723_05_3</t>
+  </si>
+  <si>
+    <t>310723_05_4</t>
+  </si>
+  <si>
+    <t>310723_05_5</t>
+  </si>
+  <si>
+    <t>310723_09_1</t>
+  </si>
+  <si>
+    <t>310723_09_2</t>
+  </si>
+  <si>
+    <t>310723_09_3</t>
+  </si>
+  <si>
+    <t>310723_09_4</t>
+  </si>
+  <si>
+    <t>310723_09_5</t>
+  </si>
+  <si>
+    <t>310723_03_1</t>
+  </si>
+  <si>
+    <t>310723_03_2</t>
+  </si>
+  <si>
+    <t>310723_03_3</t>
+  </si>
+  <si>
+    <t>310723_03_4</t>
+  </si>
+  <si>
+    <t>310723_03_5</t>
+  </si>
+  <si>
+    <t>310723_04_1</t>
+  </si>
+  <si>
+    <t>310723_04_2</t>
+  </si>
+  <si>
+    <t>310723_04_3</t>
+  </si>
+  <si>
+    <t>310723_04_4</t>
+  </si>
+  <si>
+    <t>310723_04_5</t>
+  </si>
+  <si>
+    <t>310723_01_1</t>
+  </si>
+  <si>
+    <t>310723_01_2</t>
+  </si>
+  <si>
+    <t>310723_01_3</t>
+  </si>
+  <si>
+    <t>310723_01_4</t>
+  </si>
+  <si>
+    <t>310723_01_5</t>
+  </si>
+  <si>
+    <t>310723_07_1</t>
+  </si>
+  <si>
+    <t>310723_07_2</t>
+  </si>
+  <si>
+    <t>310723_07_3</t>
+  </si>
+  <si>
+    <t>310723_07_4</t>
+  </si>
+  <si>
+    <t>310723_07_5</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +2351,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1976,10 +2401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2279,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N601"/>
+  <dimension ref="A1:N736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="C736" sqref="C736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2298,7 +2719,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -7192,6 +7613,1107 @@
         <v>620</v>
       </c>
       <c r="B601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B603">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B605">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B607">
+        <v>0.18129999999999999</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B608">
+        <v>0.2051</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B610">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B612">
+        <v>0.15758</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B613">
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B615">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B617">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B620">
+        <v>0.16520000000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B622">
+        <v>9.3100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B625">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B628">
+        <v>0.1867</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B630">
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B632">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B634">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B637">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B638">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B640">
+        <v>0.18759999999999999</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B643">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B645">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B648">
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B649">
+        <v>0.42270999999999997</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B652">
+        <v>4.41E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B653">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B655">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B656">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B658">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B660">
+        <v>8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B662">
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B663">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B665">
+        <v>9.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B666">
+        <v>0.11890000000000001</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B667">
+        <v>0.21110000000000001</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B669">
+        <v>8.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B673">
+        <v>0.12909999999999999</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B681">
+        <v>0.2412</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B686">
+        <v>0.43569999999999998</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A689" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A690" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A691" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B691">
+        <v>0.21079999999999999</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A692" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A693" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A694" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A695" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A696" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B696">
+        <v>0.31309999999999999</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A697" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A698" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A699" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A700" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A701" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B701">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="D701" t="s">
+        <v>726</v>
+      </c>
+      <c r="E701" t="s">
+        <v>727</v>
+      </c>
+      <c r="F701" t="s">
+        <v>728</v>
+      </c>
+      <c r="G701" t="s">
+        <v>729</v>
+      </c>
+      <c r="H701" t="s">
+        <v>730</v>
+      </c>
+      <c r="I701" t="s">
+        <v>731</v>
+      </c>
+      <c r="J701" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A702" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A703" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B703">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A704" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B708">
+        <v>0.18579999999999999</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B710">
+        <v>0.14895</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B714">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B715">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B716">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B718">
+        <v>0.1085</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B720">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B723">
+        <v>0.14230000000000001</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B725">
+        <v>0.1153</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B727">
+        <v>5.9700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B728">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B729">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B732">
+        <v>0.1988</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B735">
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B736">
         <v>0</v>
       </c>
     </row>

--- a/dataset/Dataset.xlsx
+++ b/dataset/Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varun\OneDrive\Desktop\thesis_remote\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22ccf9f92389cf91/Desktop/thesis_remote/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C95BC-C93A-4399-9F05-F1998DD0EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{C87C95BC-C93A-4399-9F05-F1998DD0EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6887623-A144-4F16-A57D-B87E455A54B3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="838">
   <si>
     <t>Name</t>
   </si>
@@ -2329,6 +2329,216 @@
   </si>
   <si>
     <t>310723_07_5</t>
+  </si>
+  <si>
+    <t>040823_113_1</t>
+  </si>
+  <si>
+    <t>040823_113_2</t>
+  </si>
+  <si>
+    <t>040823_113_3</t>
+  </si>
+  <si>
+    <t>040823_113_4</t>
+  </si>
+  <si>
+    <t>040823_113_5</t>
+  </si>
+  <si>
+    <t>040823_117_1</t>
+  </si>
+  <si>
+    <t>040823_117_2</t>
+  </si>
+  <si>
+    <t>040823_117_3</t>
+  </si>
+  <si>
+    <t>040823_117_4</t>
+  </si>
+  <si>
+    <t>040823_117_5</t>
+  </si>
+  <si>
+    <t>040823_116_1</t>
+  </si>
+  <si>
+    <t>040823_116_2</t>
+  </si>
+  <si>
+    <t>040823_116_3</t>
+  </si>
+  <si>
+    <t>040823_116_4</t>
+  </si>
+  <si>
+    <t>040823_116_5</t>
+  </si>
+  <si>
+    <t>040823_110_1</t>
+  </si>
+  <si>
+    <t>040823_110_2</t>
+  </si>
+  <si>
+    <t>040823_110_3</t>
+  </si>
+  <si>
+    <t>040823_110_4</t>
+  </si>
+  <si>
+    <t>040823_110_5</t>
+  </si>
+  <si>
+    <t>040823_114_1</t>
+  </si>
+  <si>
+    <t>040823_114_2</t>
+  </si>
+  <si>
+    <t>040823_114_3</t>
+  </si>
+  <si>
+    <t>040823_114_4</t>
+  </si>
+  <si>
+    <t>040823_114_5</t>
+  </si>
+  <si>
+    <t>040823_115_1</t>
+  </si>
+  <si>
+    <t>040823_115_2</t>
+  </si>
+  <si>
+    <t>040823_115_3</t>
+  </si>
+  <si>
+    <t>040823_115_4</t>
+  </si>
+  <si>
+    <t>040823_115_5</t>
+  </si>
+  <si>
+    <t>040823_122_1</t>
+  </si>
+  <si>
+    <t>040823_122_2</t>
+  </si>
+  <si>
+    <t>040823_122_3</t>
+  </si>
+  <si>
+    <t>040823_122_4</t>
+  </si>
+  <si>
+    <t>040823_122_5</t>
+  </si>
+  <si>
+    <t>040823_120_1</t>
+  </si>
+  <si>
+    <t>040823_120_2</t>
+  </si>
+  <si>
+    <t>040823_120_3</t>
+  </si>
+  <si>
+    <t>040823_120_4</t>
+  </si>
+  <si>
+    <t>040823_120_5</t>
+  </si>
+  <si>
+    <t>040823_180_1</t>
+  </si>
+  <si>
+    <t>040823_180_2</t>
+  </si>
+  <si>
+    <t>040823_180_3</t>
+  </si>
+  <si>
+    <t>040823_180_4</t>
+  </si>
+  <si>
+    <t>040823_180_5</t>
+  </si>
+  <si>
+    <t>040823_96_1</t>
+  </si>
+  <si>
+    <t>040823_96_2</t>
+  </si>
+  <si>
+    <t>040823_96_3</t>
+  </si>
+  <si>
+    <t>040823_96_4</t>
+  </si>
+  <si>
+    <t>040823_96_5</t>
+  </si>
+  <si>
+    <t>040823_43_1</t>
+  </si>
+  <si>
+    <t>040823_43_2</t>
+  </si>
+  <si>
+    <t>040823_43_3</t>
+  </si>
+  <si>
+    <t>040823_43_4</t>
+  </si>
+  <si>
+    <t>040823_43_5</t>
+  </si>
+  <si>
+    <t>040823_40_1</t>
+  </si>
+  <si>
+    <t>040823_40_2</t>
+  </si>
+  <si>
+    <t>040823_40_3</t>
+  </si>
+  <si>
+    <t>040823_40_4</t>
+  </si>
+  <si>
+    <t>040823_40_5</t>
+  </si>
+  <si>
+    <t>040823_39_1</t>
+  </si>
+  <si>
+    <t>040823_39_2</t>
+  </si>
+  <si>
+    <t>040823_39_3</t>
+  </si>
+  <si>
+    <t>040823_39_4</t>
+  </si>
+  <si>
+    <t>040823_39_5</t>
+  </si>
+  <si>
+    <t>040823_91_1</t>
+  </si>
+  <si>
+    <t>040823_91_2</t>
+  </si>
+  <si>
+    <t>040823_91_3</t>
+  </si>
+  <si>
+    <t>040823_91_4</t>
+  </si>
+  <si>
+    <t>040823_91_5</t>
   </si>
 </sst>
 </file>
@@ -2700,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N736"/>
+  <dimension ref="A1:T806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
-      <selection activeCell="C736" sqref="C736"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="T124" sqref="T124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3632,7 +3842,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3640,7 +3850,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3648,7 +3858,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3656,7 +3866,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3664,7 +3874,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3672,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3680,7 +3890,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3688,7 +3898,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3696,7 +3906,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3704,7 +3914,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3712,7 +3922,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3720,7 +3930,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3748,8 +3958,32 @@
       <c r="J124" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L124">
+        <v>1.8</v>
+      </c>
+      <c r="M124">
+        <v>1.84</v>
+      </c>
+      <c r="N124">
+        <v>1.2</v>
+      </c>
+      <c r="O124">
+        <v>1.53</v>
+      </c>
+      <c r="P124">
+        <v>0.9</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>0.16</v>
+      </c>
+      <c r="T124">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3757,7 +3991,7 @@
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3765,7 +3999,7 @@
         <v>6.9099999999999995E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
@@ -3773,7 +4007,7 @@
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
@@ -8714,6 +8948,566 @@
         <v>767</v>
       </c>
       <c r="B736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B737">
+        <v>0.1198</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B739">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B740">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B746">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B747">
+        <v>0.13120000000000001</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B756">
+        <v>0.12429999999999999</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B761">
+        <v>0.10970000000000001</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B763">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B769">
+        <v>0.10780000000000001</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B776">
+        <v>0.1192</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B780">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B782">
+        <v>0.12139999999999999</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B785">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B788">
+        <v>6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B789">
+        <v>8.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B790">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B792">
+        <v>7.7700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B801">
+        <v>0.2064</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B805">
+        <v>6.13E-2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B806">
         <v>0</v>
       </c>
     </row>
